--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Demigod</t>
   </si>
   <si>
+    <t>Rebirth</t>
+  </si>
+  <si>
     <t>Ending</t>
   </si>
   <si>
@@ -55,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,9 +72,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +83,29 @@
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,23 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,7 +127,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +164,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -138,14 +186,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,13 +203,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,45 +215,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,13 +225,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,25 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,139 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,11 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,26 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +496,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,16 +524,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,127 +542,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1022,34 +1025,62 @@
         <v>11070</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>11010</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>3100</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>100</v>
       </c>
     </row>
@@ -1062,13 +1093,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1101,7 +1132,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1109,7 +1140,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1117,10 +1148,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>Param2</t>
+  </si>
+  <si>
+    <t>Nu+5</t>
+  </si>
+  <si>
+    <t>HPとMP回復</t>
+  </si>
+  <si>
+    <t>アルカナ</t>
   </si>
   <si>
     <t>GetItemType</t>
@@ -59,9 +68,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,39 +82,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,44 +172,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -187,22 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +201,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,181 +234,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,17 +428,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,20 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,145 +533,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1014,74 +1023,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>11070</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>11010</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>400</v>
+        <v>1001</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3100</v>
+        <v>1002</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>11010</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>11010</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1135,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1111,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1119,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1127,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1135,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1143,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1151,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1159,7 +1191,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -67,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -88,11 +103,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +156,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -112,114 +203,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +234,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,133 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,24 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,47 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +471,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,145 +533,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1113,6 +1113,23 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>11070</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>11070</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>HPとMP回復</t>
   </si>
   <si>
+    <t>救出</t>
+  </si>
+  <si>
     <t>アルカナ</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>Regene</t>
+  </si>
+  <si>
+    <t>AddActor</t>
   </si>
 </sst>
 </file>
@@ -67,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +84,126 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,137 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,19 +240,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,163 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +431,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,15 +502,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -463,26 +510,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,30 +531,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,16 +539,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,127 +557,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1073,7 +1079,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="B5">
         <v>51</v>
@@ -1087,7 +1093,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -1101,13 +1107,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>11010</v>
+        <v>1001</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>11010</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,19 +1124,87 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>11070</v>
+        <v>1011</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>11070</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1012</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1021</v>
+      </c>
+      <c r="B10">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11010</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>11010</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11070</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11070</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1142,17 +1216,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1160,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1168,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1176,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1184,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1192,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1200,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1208,7 +1282,23 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,14 +87,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -104,69 +141,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,15 +194,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,181 +246,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,20 +466,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +491,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +539,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,127 +557,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1192,18 +1192,52 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11070</v>
+        <v>11020</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11070</v>
+        <v>11020</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11030</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11030</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11070</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>11070</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -32,13 +32,40 @@
     <t>Nu+5</t>
   </si>
   <si>
+    <t>Nu+10</t>
+  </si>
+  <si>
+    <t>Nu+20</t>
+  </si>
+  <si>
+    <t>Nu+30</t>
+  </si>
+  <si>
+    <t>Nu+５0</t>
+  </si>
+  <si>
+    <t>Nu+100</t>
+  </si>
+  <si>
+    <t>アクター</t>
+  </si>
+  <si>
+    <t>救出</t>
+  </si>
+  <si>
     <t>HPとMP回復</t>
   </si>
   <si>
-    <t>救出</t>
+    <t>魔法</t>
   </si>
   <si>
     <t>アルカナ</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>命中</t>
   </si>
   <si>
     <t>GetItemType</t>
@@ -74,8 +101,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -87,19 +114,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,14 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,13 +196,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -154,31 +204,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -203,22 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +267,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,13 +351,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,157 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -488,6 +500,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -499,20 +526,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +566,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,7 +575,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,127 +584,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1031,7 +1058,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1048,13 +1075,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1063,182 +1090,959 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>501</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>502</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
       <c r="C6">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>1011</v>
+        <v>400</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1012</v>
+        <v>502</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1021</v>
+        <v>503</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11010</v>
+        <v>504</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>11010</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11020</v>
+        <v>505</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>11020</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11030</v>
+        <v>601</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>11030</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
+        <v>605</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>610</v>
+      </c>
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>620</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>640</v>
+      </c>
+      <c r="B17">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>650</v>
+      </c>
+      <c r="B18">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>700</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>800</v>
+      </c>
+      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3000</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>11010</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11010</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>11020</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>11020</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11030</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>11030</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>11040</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>11040</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>11050</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>11050</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>11060</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>11060</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>11070</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>11070</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>12010</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>12010</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>12020</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>12020</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>12030</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>12030</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>12040</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>12040</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>12050</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>12050</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>12060</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>12060</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>12070</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>12070</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>13010</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>13010</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>13020</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>13020</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>13030</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>13030</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>13040</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>13040</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>13050</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>13050</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>13060</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>13060</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>13070</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>13070</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>14010</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>14010</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>14020</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>14020</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>14030</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>14030</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>14040</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>14040</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>14050</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>14050</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>14060</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>14060</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>14070</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>14070</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>14080</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>14080</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>15010</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>13010</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>15020</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>14020</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>15030</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>14030</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>15040</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>14040</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>15050</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>14050</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>15060</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>14060</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>15070</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>15070</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>500080</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>500080</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>500130</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>500130</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +2064,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1268,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1276,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1284,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1292,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1300,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1308,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1316,7 +2120,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1324,7 +2128,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1332,7 +2136,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -100,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,8 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +138,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +166,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -158,9 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,48 +226,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,10 +243,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,21 +257,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,6 +267,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,49 +399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,121 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,6 +491,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,27 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +547,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,16 +566,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,127 +584,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B9">
         <v>51</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10">
         <v>51</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1208,13 +1208,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B11">
         <v>51</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12">
         <v>51</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1242,30 +1242,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1276,13 +1276,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B16">
         <v>61</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B17">
         <v>61</v>
       </c>
       <c r="C17">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B19">
         <v>61</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B20">
         <v>61</v>
       </c>
       <c r="C20">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1378,47 +1378,47 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11010</v>
+        <v>3000</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>11010</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>12010</v>
+        <v>11070</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>12010</v>
+        <v>11070</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12020</v>
+        <v>12010</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>12020</v>
+        <v>12010</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12060</v>
+        <v>12050</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>12060</v>
+        <v>12050</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1616,13 +1616,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12070</v>
+        <v>12060</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>12070</v>
+        <v>12060</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13010</v>
+        <v>12070</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>13010</v>
+        <v>12070</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13050</v>
+        <v>13040</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>13050</v>
+        <v>13040</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13060</v>
+        <v>13050</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>13060</v>
+        <v>13050</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13070</v>
+        <v>13060</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>13070</v>
+        <v>13060</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14010</v>
+        <v>13070</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>14010</v>
+        <v>13070</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14050</v>
+        <v>14040</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>14050</v>
+        <v>14040</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14060</v>
+        <v>14050</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>14060</v>
+        <v>14050</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14080</v>
+        <v>14070</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>14080</v>
+        <v>14070</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>15010</v>
+        <v>14080</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>13010</v>
+        <v>14080</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15050</v>
+        <v>15040</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14050</v>
+        <v>14040</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15060</v>
+        <v>15050</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14060</v>
+        <v>14050</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1990,50 +1990,47 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
+        <v>15060</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>14060</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
         <v>15070</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>15070</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>500080</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>500080</v>
-      </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>500130</v>
+        <v>500080</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>500130</v>
+        <v>500080</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2042,6 +2039,26 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>500130</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>500130</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Nu+30</t>
   </si>
   <si>
-    <t>Nu+５0</t>
+    <t>Nu+50</t>
   </si>
   <si>
     <t>Nu+100</t>
@@ -53,10 +53,10 @@
     <t>救出</t>
   </si>
   <si>
+    <t>魔法</t>
+  </si>
+  <si>
     <t>HPとMP回復</t>
-  </si>
-  <si>
-    <t>魔法</t>
   </si>
   <si>
     <t>アルカナ</t>
@@ -100,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -114,14 +114,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -130,14 +145,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,15 +175,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,23 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -219,14 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -236,23 +237,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,49 +267,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,11 +485,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,32 +514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,11 +537,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,145 +566,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3000</v>
+        <v>1001</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>11010</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1412,84 +1412,84 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11010</v>
+        <v>1002</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>11010</v>
+        <v>12010</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11020</v>
+        <v>1003</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>11020</v>
+        <v>13020</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11030</v>
+        <v>1004</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>11030</v>
+        <v>14090</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11040</v>
+        <v>1005</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>11040</v>
+        <v>15080</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11050</v>
+        <v>3000</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>11050</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1497,568 +1497,653 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11060</v>
+        <v>11010</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>11060</v>
+        <v>11010</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11070</v>
+        <v>11020</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>11070</v>
+        <v>11020</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12010</v>
+        <v>11030</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>12010</v>
+        <v>11030</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12030</v>
+        <v>11050</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>12030</v>
+        <v>11050</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12040</v>
+        <v>11060</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>12040</v>
+        <v>11060</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12050</v>
+        <v>11070</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>12050</v>
+        <v>11070</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12060</v>
+        <v>12010</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>12060</v>
+        <v>12010</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12070</v>
+        <v>12020</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>12070</v>
+        <v>12020</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13030</v>
+        <v>12050</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>13030</v>
+        <v>12050</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13040</v>
+        <v>12060</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>13040</v>
+        <v>12060</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13050</v>
+        <v>12070</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>13050</v>
+        <v>12070</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13060</v>
+        <v>13010</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>13060</v>
+        <v>13010</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13070</v>
+        <v>13020</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13070</v>
+        <v>13020</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14030</v>
+        <v>13050</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>14030</v>
+        <v>13050</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14040</v>
+        <v>13060</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>14040</v>
+        <v>13060</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14050</v>
+        <v>13070</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>14050</v>
+        <v>13070</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14060</v>
+        <v>14010</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>14060</v>
+        <v>14010</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14070</v>
+        <v>14020</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>14070</v>
+        <v>14020</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14080</v>
+        <v>14030</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>14080</v>
+        <v>14030</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15010</v>
+        <v>14040</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>13010</v>
+        <v>14040</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15020</v>
+        <v>14050</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14020</v>
+        <v>14050</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15030</v>
+        <v>14060</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14030</v>
+        <v>14060</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15040</v>
+        <v>14070</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14040</v>
+        <v>14070</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15050</v>
+        <v>14080</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14050</v>
+        <v>14080</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15060</v>
+        <v>15010</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14060</v>
+        <v>13010</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
+        <v>15020</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>14020</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>15030</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>14030</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>15040</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>14040</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>15050</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>14050</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>15060</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>14060</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>15070</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>15070</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
         <v>500080</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>500080</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>14</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="65" spans="1:6">
+      <c r="A65">
         <v>500130</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>500130</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
         <v>14</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F65" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -100,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,6 +111,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,45 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,16 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +161,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,19 +229,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,13 +267,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,43 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,43 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,73 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +470,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,20 +498,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +523,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,7 +566,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,7 +575,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,127 +584,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>13010</v>
+        <v>15010</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>14020</v>
+        <v>15020</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>14030</v>
+        <v>15030</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>14040</v>
+        <v>15040</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>14050</v>
+        <v>15050</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>14060</v>
+        <v>15060</v>
       </c>
       <c r="D62">
         <v>0</v>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Nu+30</t>
+  </si>
+  <si>
+    <t>Nu+40</t>
   </si>
   <si>
     <t>Nu+50</t>
@@ -100,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,6 +114,27 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,6 +146,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -130,15 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,90 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -267,13 +270,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,49 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,109 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,26 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,7 +483,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,30 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,6 +541,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,145 +569,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1126,13 +1129,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1143,13 +1146,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1158,114 +1161,114 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>400</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>501</v>
-      </c>
-      <c r="B9">
-        <v>51</v>
-      </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B10">
         <v>51</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11">
         <v>51</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12">
         <v>51</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13">
         <v>51</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1276,135 +1279,135 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B16">
         <v>61</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B17">
         <v>61</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B19">
         <v>61</v>
       </c>
       <c r="C19">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B20">
         <v>61</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B21">
         <v>61</v>
       </c>
       <c r="C21">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1001</v>
+        <v>800</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>11010</v>
+        <v>20000</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1412,81 +1415,81 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>12010</v>
+        <v>11010</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>13020</v>
+        <v>12010</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>14090</v>
+        <v>13020</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>15080</v>
+        <v>14090</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3000</v>
+        <v>1005</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>15080</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1497,654 +1500,671 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11010</v>
+        <v>3000</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>11010</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12010</v>
+        <v>11070</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>12010</v>
+        <v>11070</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12020</v>
+        <v>12010</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>12020</v>
+        <v>12010</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12060</v>
+        <v>12050</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>12060</v>
+        <v>12050</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12070</v>
+        <v>12060</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>12070</v>
+        <v>12060</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13010</v>
+        <v>12070</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>13010</v>
+        <v>12070</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13050</v>
+        <v>13040</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>13050</v>
+        <v>13040</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13060</v>
+        <v>13050</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>13060</v>
+        <v>13050</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13070</v>
+        <v>13060</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>13070</v>
+        <v>13060</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14010</v>
+        <v>13070</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>14010</v>
+        <v>13070</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14050</v>
+        <v>14040</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14050</v>
+        <v>14040</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14060</v>
+        <v>14050</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14060</v>
+        <v>14050</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14080</v>
+        <v>14070</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14080</v>
+        <v>14070</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15010</v>
+        <v>14080</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>15010</v>
+        <v>14080</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15050</v>
+        <v>15040</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>15050</v>
+        <v>15040</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15060</v>
+        <v>15050</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>15060</v>
+        <v>15050</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
+        <v>15060</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>15060</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>15070</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>15070</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>500080</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>500080</v>
-      </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>500130</v>
+        <v>500080</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>500130</v>
+        <v>500080</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>500130</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>500130</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2174,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2182,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2190,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2198,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2206,7 +2226,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2214,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2222,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2230,7 +2250,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2238,7 +2258,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,6 +114,28 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,8 +153,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,46 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,25 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,26 +230,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,6 +270,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,175 +318,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,17 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -552,15 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,145 +569,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1279,115 +1279,115 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>620</v>
+        <v>509</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>640</v>
+        <v>510</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>650</v>
+        <v>511</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>5000</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="B21">
         <v>61</v>
       </c>
       <c r="C21">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>800</v>
+        <v>605</v>
       </c>
       <c r="B22">
         <v>61</v>
       </c>
       <c r="C22">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1415,109 +1415,109 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1001</v>
+        <v>610</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>11010</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1002</v>
+        <v>620</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C24">
-        <v>12010</v>
+        <v>2000</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1003</v>
+        <v>640</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>13020</v>
+        <v>4000</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1004</v>
+        <v>650</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>14090</v>
+        <v>5000</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1005</v>
+        <v>700</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>15080</v>
+        <v>10000</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11010</v>
+        <v>1001</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         <v>11010</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1534,16 +1534,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11020</v>
+        <v>1002</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>11020</v>
+        <v>12010</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11030</v>
+        <v>1003</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>11030</v>
+        <v>13020</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11040</v>
+        <v>1004</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>11040</v>
+        <v>14090</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11050</v>
+        <v>1005</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>11050</v>
+        <v>15080</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1602,30 +1602,30 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11060</v>
+        <v>3000</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>11060</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11070</v>
+        <v>11010</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>11070</v>
+        <v>11010</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12010</v>
+        <v>11020</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>12010</v>
+        <v>11020</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1670,13 +1670,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12040</v>
+        <v>11050</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>12040</v>
+        <v>11050</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12050</v>
+        <v>11060</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>12050</v>
+        <v>11060</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12060</v>
+        <v>11070</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>12060</v>
+        <v>11070</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12070</v>
+        <v>12010</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>12070</v>
+        <v>12010</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13010</v>
+        <v>12020</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13010</v>
+        <v>12020</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1789,13 +1789,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13040</v>
+        <v>12050</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>13040</v>
+        <v>12050</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13050</v>
+        <v>12060</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>13050</v>
+        <v>12060</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13060</v>
+        <v>12070</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>13060</v>
+        <v>12070</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13070</v>
+        <v>13010</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>13070</v>
+        <v>13010</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14020</v>
+        <v>13030</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>14020</v>
+        <v>13030</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14030</v>
+        <v>13040</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14030</v>
+        <v>13040</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14040</v>
+        <v>13050</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14040</v>
+        <v>13050</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14050</v>
+        <v>13060</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14050</v>
+        <v>13060</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14060</v>
+        <v>13070</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14060</v>
+        <v>13070</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14070</v>
+        <v>14010</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14070</v>
+        <v>14010</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14080</v>
+        <v>14020</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14080</v>
+        <v>14020</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15010</v>
+        <v>14030</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>15010</v>
+        <v>14030</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15020</v>
+        <v>14040</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>15020</v>
+        <v>14040</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15030</v>
+        <v>14050</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>15030</v>
+        <v>14050</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15040</v>
+        <v>14060</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>15040</v>
+        <v>14060</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15050</v>
+        <v>14070</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>15050</v>
+        <v>14070</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15060</v>
+        <v>14080</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15060</v>
+        <v>14080</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2112,58 +2112,160 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
+        <v>15010</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>15010</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>15020</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>15020</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>15030</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>15030</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>15040</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>15040</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>15050</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>15050</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>15060</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>15060</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>15070</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>15070</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
         <v>500080</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>500080</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+    <row r="72" spans="1:6">
+      <c r="A72">
         <v>500130</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>500130</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F72" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Nu+100</t>
-  </si>
-  <si>
-    <t>アクター</t>
   </si>
   <si>
     <t>救出</t>
@@ -103,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,13 +116,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,23 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +153,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,7 +222,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,25 +236,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,25 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,21 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +472,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,41 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +534,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,145 +566,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A10" sqref="$A10:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1194,13 +1191,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1211,13 +1208,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1228,13 +1225,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>503</v>
+        <v>610</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1245,13 +1242,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>504</v>
+        <v>620</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1262,13 +1259,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>505</v>
+        <v>640</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1279,13 +1276,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>506</v>
+        <v>650</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5000</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1296,13 +1293,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>507</v>
+        <v>700</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10000</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1313,13 +1310,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>508</v>
+        <v>800</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>20000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1330,67 +1327,67 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>509</v>
+        <v>1001</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>11010</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>510</v>
+        <v>1002</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>12010</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>511</v>
+        <v>1003</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>13020</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>601</v>
+        <v>1004</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C21">
+        <v>14090</v>
+      </c>
+      <c r="D21">
         <v>100</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1398,16 +1395,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>605</v>
+        <v>1005</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>500</v>
+        <v>15080</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1415,30 +1412,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>610</v>
+        <v>3000</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>620</v>
+        <v>11010</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2000</v>
+        <v>11010</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1449,13 +1446,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>640</v>
+        <v>11020</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>4000</v>
+        <v>11020</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1466,13 +1463,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>650</v>
+        <v>11030</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>5000</v>
+        <v>11030</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1483,13 +1480,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>700</v>
+        <v>11040</v>
       </c>
       <c r="B27">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>10000</v>
+        <v>11040</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1500,13 +1497,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>800</v>
+        <v>11050</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>20000</v>
+        <v>11050</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1517,756 +1514,569 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1001</v>
+        <v>11060</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>11010</v>
+        <v>11060</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1002</v>
+        <v>11070</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>12010</v>
+        <v>11070</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1003</v>
+        <v>12010</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>13020</v>
+        <v>12010</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1004</v>
+        <v>12020</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>14090</v>
+        <v>12020</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1005</v>
+        <v>12030</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>15080</v>
+        <v>12030</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3000</v>
+        <v>12040</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>12040</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11010</v>
+        <v>12050</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>11010</v>
+        <v>12050</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11020</v>
+        <v>12060</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>11020</v>
+        <v>12060</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11030</v>
+        <v>12070</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>11030</v>
+        <v>12070</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11040</v>
+        <v>13010</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>11040</v>
+        <v>13010</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11050</v>
+        <v>13020</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>11050</v>
+        <v>13020</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11060</v>
+        <v>13030</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>11060</v>
+        <v>13030</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11070</v>
+        <v>13040</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>11070</v>
+        <v>13040</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12010</v>
+        <v>13050</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>12010</v>
+        <v>13050</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12020</v>
+        <v>13060</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>12020</v>
+        <v>13060</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12030</v>
+        <v>13070</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>12030</v>
+        <v>13070</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12050</v>
+        <v>14020</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>12050</v>
+        <v>14020</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12060</v>
+        <v>14030</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>12060</v>
+        <v>14030</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12070</v>
+        <v>14040</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>12070</v>
+        <v>14040</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13010</v>
+        <v>14050</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>13010</v>
+        <v>14050</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13020</v>
+        <v>14060</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>13020</v>
+        <v>14060</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13030</v>
+        <v>14070</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>13030</v>
+        <v>14070</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13040</v>
+        <v>14080</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>13040</v>
+        <v>14080</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13050</v>
+        <v>15010</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>13050</v>
+        <v>15010</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13060</v>
+        <v>15020</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>13060</v>
+        <v>15020</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13070</v>
+        <v>15030</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>13070</v>
+        <v>15030</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14010</v>
+        <v>15040</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14010</v>
+        <v>15040</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14030</v>
+        <v>15060</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>14030</v>
+        <v>15060</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14040</v>
+        <v>15070</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>14040</v>
+        <v>15070</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
-        <v>14050</v>
+        <v>500080</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>14050</v>
+        <v>500080</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
-        <v>14060</v>
+        <v>500130</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>14060</v>
+        <v>500130</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>14070</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>14070</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>14080</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>14080</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>15010</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>15010</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>15020</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>15020</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>15030</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>15030</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>15040</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>15040</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>15050</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>15050</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>15060</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>15060</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>15070</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>15070</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>500080</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>500080</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>500130</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>500130</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2296,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2304,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2312,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2320,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2328,7 +2138,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2336,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2344,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2352,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2360,7 +2170,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Nu+20</t>
   </si>
   <si>
+    <t>Nu+25</t>
+  </si>
+  <si>
     <t>Nu+30</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>Nu+50</t>
   </si>
   <si>
+    <t>Nu+75</t>
+  </si>
+  <si>
     <t>Nu+100</t>
   </si>
   <si>
@@ -54,6 +60,12 @@
   </si>
   <si>
     <t>魔法</t>
+  </si>
+  <si>
+    <t>ステージ1中ボス</t>
+  </si>
+  <si>
+    <t>ステージ2中ボス</t>
   </si>
   <si>
     <t>HPとMP回復</t>
@@ -100,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,28 +123,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +143,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,29 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,24 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +233,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,49 +279,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,21 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,15 +484,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +519,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,145 +578,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1109,13 +1121,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1126,13 +1138,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1143,13 +1155,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1160,13 +1172,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1175,908 +1187,1062 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>601</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B12">
         <v>61</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B13">
         <v>61</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
       <c r="C14">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
       <c r="C15">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="B16">
         <v>61</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="B17">
         <v>61</v>
       </c>
       <c r="C17">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1001</v>
+        <v>700</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>11010</v>
+        <v>10000</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1002</v>
+        <v>800</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>12010</v>
+        <v>20000</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>13020</v>
+        <v>11010</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>14090</v>
+        <v>12010</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>15080</v>
+        <v>13020</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>3000</v>
+        <v>1004</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>14090</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11010</v>
+        <v>1005</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>11010</v>
+        <v>15080</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
-        <v>11020</v>
+        <v>1012</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>11020</v>
+        <v>1000</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
-        <v>11030</v>
+        <v>1012</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>11030</v>
+        <v>1080</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
-        <v>11040</v>
+        <v>2021</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>11040</v>
+        <v>2000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
-        <v>11050</v>
+        <v>2021</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>11050</v>
+        <v>2090</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>11060</v>
+        <v>3021</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C29">
-        <v>11060</v>
+        <v>4000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>11070</v>
+        <v>3021</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>11070</v>
+        <v>3050</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12010</v>
+        <v>3000</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>12010</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12020</v>
+        <v>11010</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>12020</v>
+        <v>11010</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12030</v>
+        <v>11020</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>12030</v>
+        <v>11020</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12040</v>
+        <v>11030</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>12040</v>
+        <v>11030</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12050</v>
+        <v>11040</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>12050</v>
+        <v>11040</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12060</v>
+        <v>11050</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>12060</v>
+        <v>11050</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12070</v>
+        <v>11060</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>12070</v>
+        <v>11060</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13010</v>
+        <v>11070</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>13010</v>
+        <v>11070</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13020</v>
+        <v>12010</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>13020</v>
+        <v>12010</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13030</v>
+        <v>12020</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>13030</v>
+        <v>12020</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13040</v>
+        <v>12030</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>13040</v>
+        <v>12030</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13050</v>
+        <v>12040</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>13050</v>
+        <v>12040</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13060</v>
+        <v>12050</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13060</v>
+        <v>12050</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13070</v>
+        <v>12060</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>13070</v>
+        <v>12060</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14010</v>
+        <v>12070</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>14010</v>
+        <v>12070</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14030</v>
+        <v>13020</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>14030</v>
+        <v>13020</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14040</v>
+        <v>13030</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>14040</v>
+        <v>13030</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14050</v>
+        <v>13040</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>14050</v>
+        <v>13040</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14060</v>
+        <v>13050</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>14060</v>
+        <v>13050</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14070</v>
+        <v>13060</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>14070</v>
+        <v>13060</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14080</v>
+        <v>13070</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14080</v>
+        <v>13070</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15010</v>
+        <v>14010</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>15010</v>
+        <v>14010</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15040</v>
+        <v>14040</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>15040</v>
+        <v>14040</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15050</v>
+        <v>14050</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>15050</v>
+        <v>14050</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15060</v>
+        <v>14060</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>15060</v>
+        <v>14060</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
+        <v>14070</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>14070</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>14080</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>14080</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>15010</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>15010</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>15020</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>15020</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>15030</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>15030</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>15040</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>15040</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>15050</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>15050</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>15060</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>15060</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>15070</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>15070</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
         <v>500080</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>500080</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
         <v>500130</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>500130</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>16</v>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2264,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2106,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2114,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2122,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2130,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2138,7 +2304,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2146,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2154,7 +2320,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2162,7 +2328,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2170,7 +2336,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -71,13 +71,10 @@
     <t>HPとMP回復</t>
   </si>
   <si>
-    <t>アルカナ</t>
-  </si>
-  <si>
-    <t>回避</t>
-  </si>
-  <si>
-    <t>命中</t>
+    <t>過去改編</t>
+  </si>
+  <si>
+    <t>並行世界化</t>
   </si>
   <si>
     <t>GetItemType</t>
@@ -114,8 +111,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,28 +125,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -172,28 +153,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -202,30 +161,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -241,6 +176,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -249,7 +207,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +236,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +276,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,175 +414,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,65 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,6 +495,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -570,6 +532,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,145 +575,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2205,15 +2202,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5">
       <c r="A68">
-        <v>500080</v>
+        <v>20010</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C68">
-        <v>500080</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2221,28 +2218,22 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
-      <c r="F68" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>20020</v>
+      </c>
+      <c r="B69">
+        <v>102</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>500130</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>500130</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2255,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2272,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2280,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2288,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2296,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2304,7 +2295,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2312,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2320,7 +2311,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2328,7 +2319,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>並行世界化</t>
+  </si>
+  <si>
+    <t>初期仲間変更</t>
   </si>
   <si>
     <t>GetItemType</t>
@@ -109,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,111 +123,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +152,112 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +279,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,163 +411,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +470,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,30 +562,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,145 +578,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2234,6 +2237,23 @@
       </c>
       <c r="E69" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>20030</v>
+      </c>
+      <c r="B70">
+        <v>103</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2275,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2263,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2271,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2279,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2287,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2295,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2303,7 +2323,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2311,7 +2331,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2319,7 +2339,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -112,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,55 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +149,92 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -217,14 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -233,38 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +285,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,169 +315,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,15 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,9 +490,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,26 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,145 +578,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,8 +1048,8 @@
   <sheetPr/>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="$A68:$XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Nu+10</t>
   </si>
   <si>
+    <t>Nu+15</t>
+  </si>
+  <si>
     <t>Nu+20</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>Nu+50</t>
+  </si>
+  <si>
+    <t>Nu+60</t>
   </si>
   <si>
     <t>Nu+75</t>
@@ -112,9 +118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -127,60 +133,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,9 +171,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +238,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,46 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +291,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,127 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +476,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,13 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +527,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,24 +568,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +584,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,7 +593,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,124 +605,124 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A68" sqref="$A68:$XFD68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1104,13 +1110,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1121,13 +1127,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1138,13 +1144,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1155,13 +1161,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1172,13 +1178,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1189,13 +1195,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1206,13 +1212,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1221,1030 +1227,1030 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>601</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="B16">
         <v>61</v>
       </c>
       <c r="C16">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="B17">
         <v>61</v>
       </c>
       <c r="C17">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="B19">
         <v>61</v>
       </c>
       <c r="C19">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1001</v>
+        <v>700</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>11010</v>
+        <v>10000</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1002</v>
+        <v>800</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C21">
-        <v>12010</v>
+        <v>20000</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>13020</v>
+        <v>11010</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>14090</v>
+        <v>12010</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
+        <v>1003</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>13020</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1004</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>14090</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>1005</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>15080</v>
       </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1012</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1012</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1080</v>
-      </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>2021</v>
+        <v>1012</v>
       </c>
       <c r="B27">
         <v>61</v>
       </c>
       <c r="C27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>2021</v>
+        <v>1012</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2090</v>
+        <v>1080</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>3021</v>
+        <v>2021</v>
       </c>
       <c r="B29">
         <v>61</v>
       </c>
       <c r="C29">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2090</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>3021</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B31">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>3021</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>3050</v>
       </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>3000</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>11010</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>11010</v>
-      </c>
       <c r="D32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11020</v>
+        <v>3000</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>11020</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11030</v>
+        <v>11010</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>11030</v>
+        <v>11010</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11050</v>
+        <v>11030</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>11050</v>
+        <v>11030</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11060</v>
+        <v>11040</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>11060</v>
+        <v>11040</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11070</v>
+        <v>11050</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>11070</v>
+        <v>11050</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12010</v>
+        <v>11060</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>12010</v>
+        <v>11060</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12020</v>
+        <v>11070</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>12020</v>
+        <v>11070</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12030</v>
+        <v>12010</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>12030</v>
+        <v>12010</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12050</v>
+        <v>12030</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>12050</v>
+        <v>12030</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12060</v>
+        <v>12040</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>12060</v>
+        <v>12040</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12070</v>
+        <v>12050</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>12070</v>
+        <v>12050</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13010</v>
+        <v>12060</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>13010</v>
+        <v>12060</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13020</v>
+        <v>12070</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>13020</v>
+        <v>12070</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13030</v>
+        <v>13010</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>13030</v>
+        <v>13010</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13050</v>
+        <v>13030</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>13050</v>
+        <v>13030</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13060</v>
+        <v>13040</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>13060</v>
+        <v>13040</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13070</v>
+        <v>13050</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>13070</v>
+        <v>13050</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14010</v>
+        <v>13060</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14010</v>
+        <v>13060</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14020</v>
+        <v>13070</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14020</v>
+        <v>13070</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14040</v>
+        <v>14020</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14040</v>
+        <v>14020</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14050</v>
+        <v>14030</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14050</v>
+        <v>14030</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14060</v>
+        <v>14040</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>14060</v>
+        <v>14040</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14070</v>
+        <v>14050</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>14070</v>
+        <v>14050</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14080</v>
+        <v>14060</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>14080</v>
+        <v>14060</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15010</v>
+        <v>14070</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>15010</v>
+        <v>14070</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15020</v>
+        <v>14080</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>15020</v>
+        <v>14080</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15040</v>
+        <v>15020</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>15040</v>
+        <v>15020</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15060</v>
+        <v>15040</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>15060</v>
+        <v>15040</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15070</v>
+        <v>15050</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>15070</v>
+        <v>15050</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>20010</v>
+        <v>15060</v>
       </c>
       <c r="B68">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>15060</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20020</v>
+        <v>15070</v>
       </c>
       <c r="B69">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>15070</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20030</v>
+        <v>20010</v>
       </c>
       <c r="B70">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2254,6 +2260,40 @@
       </c>
       <c r="E70" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>20020</v>
+      </c>
+      <c r="B71">
+        <v>102</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>20030</v>
+      </c>
+      <c r="B72">
+        <v>103</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2283,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2291,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2299,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2307,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2315,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2323,7 +2363,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2331,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2339,7 +2379,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2347,7 +2387,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -118,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,45 +129,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,26 +146,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +170,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,37 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +236,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,13 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,169 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +479,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +542,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +576,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,16 +584,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,127 +602,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1153,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1170,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1187,7 +1187,7 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1204,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1221,7 +1221,7 @@
         <v>60</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1238,7 +1238,7 @@
         <v>75</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1255,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>15080</v>
+        <v>15010</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1547,7 +1547,7 @@
         <v>2000</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1587,7 +1587,7 @@
         <v>4000</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -118,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,7 +133,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,31 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,14 +178,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -207,23 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,16 +224,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,15 +254,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +285,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,61 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,67 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,30 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,11 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +534,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +561,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,16 +584,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,127 +602,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11050</v>
+        <v>12010</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>11050</v>
+        <v>12010</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11060</v>
+        <v>12020</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>11060</v>
+        <v>12020</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11070</v>
+        <v>12030</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>11070</v>
+        <v>12030</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12010</v>
+        <v>12040</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>12010</v>
+        <v>12040</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12020</v>
+        <v>12050</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>12020</v>
+        <v>12050</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12030</v>
+        <v>13010</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>12030</v>
+        <v>13010</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12040</v>
+        <v>13020</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>12040</v>
+        <v>13020</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12050</v>
+        <v>13030</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>12050</v>
+        <v>13030</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12060</v>
+        <v>13040</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>12060</v>
+        <v>13040</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12070</v>
+        <v>13050</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>12070</v>
+        <v>13050</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13010</v>
+        <v>13060</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>13010</v>
+        <v>13060</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13020</v>
+        <v>13070</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>13020</v>
+        <v>13070</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13030</v>
+        <v>14010</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>13030</v>
+        <v>14010</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13040</v>
+        <v>14020</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>13040</v>
+        <v>14020</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13050</v>
+        <v>14030</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>13050</v>
+        <v>14030</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13060</v>
+        <v>14040</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>13060</v>
+        <v>14040</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13070</v>
+        <v>14050</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>13070</v>
+        <v>14050</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14010</v>
+        <v>14060</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14010</v>
+        <v>14060</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14020</v>
+        <v>14070</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14020</v>
+        <v>14070</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14030</v>
+        <v>14080</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14030</v>
+        <v>14080</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14040</v>
+        <v>15010</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>14040</v>
+        <v>15010</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14050</v>
+        <v>15020</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>14050</v>
+        <v>15020</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14060</v>
+        <v>15030</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>14060</v>
+        <v>15030</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14070</v>
+        <v>15040</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>14070</v>
+        <v>15040</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14080</v>
+        <v>15050</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>14080</v>
+        <v>15050</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15010</v>
+        <v>15060</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15010</v>
+        <v>15060</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15020</v>
+        <v>15070</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>15020</v>
+        <v>15070</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2162,137 +2162,52 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15030</v>
+        <v>20010</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C65">
-        <v>15030</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15040</v>
+        <v>20020</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C66">
-        <v>15040</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15050</v>
+        <v>20030</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C67">
-        <v>15050</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>15060</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>15060</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>15070</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>15070</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>20010</v>
-      </c>
-      <c r="B70">
-        <v>101</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>20020</v>
-      </c>
-      <c r="B71">
-        <v>102</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>20030</v>
-      </c>
-      <c r="B72">
-        <v>103</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>14090</v>
+        <v>14050</v>
       </c>
       <c r="D25">
         <v>100</v>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -1054,7 +1054,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="D24">
         <v>100</v>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -68,13 +68,13 @@
     <t>魔法</t>
   </si>
   <si>
+    <t>Nu</t>
+  </si>
+  <si>
     <t>ステージ1中ボス</t>
   </si>
   <si>
     <t>ステージ2中ボス</t>
-  </si>
-  <si>
-    <t>HPとMP回復</t>
   </si>
   <si>
     <t>過去改編</t>
@@ -118,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,24 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +149,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,15 +178,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,27 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +215,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,23 +254,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +285,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,145 +429,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +481,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,15 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,20 +522,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,17 +559,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,145 +584,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1261,40 +1261,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>400</v>
+        <v>1011</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>601</v>
+        <v>1011</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>11010</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>605</v>
+        <v>1031</v>
       </c>
       <c r="B15">
         <v>61</v>
@@ -1309,32 +1312,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>610</v>
+        <v>1031</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>620</v>
+        <v>1032</v>
       </c>
       <c r="B17">
         <v>61</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1342,84 +1348,90 @@
       <c r="E17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>640</v>
+        <v>1032</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4000</v>
+        <v>1080</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
-        <v>650</v>
+      <c r="A19" s="1">
+        <v>1041</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>5000</v>
+        <v>12010</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
-        <v>700</v>
+      <c r="A20" s="1">
+        <v>1042</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>13010</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
-        <v>800</v>
+      <c r="A21" s="1">
+        <v>1051</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>20000</v>
+        <v>14050</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1001</v>
+      <c r="A22" s="1">
+        <v>1052</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>11010</v>
+        <v>15010</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1429,82 +1441,88 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1002</v>
+      <c r="A23" s="1">
+        <v>1101</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>12010</v>
+        <v>2000</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1003</v>
+        <v>1101</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>13010</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
-        <v>1004</v>
+        <v>2041</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>14050</v>
+        <v>1000</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
-        <v>1005</v>
+        <v>2041</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>15010</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1012</v>
+        <v>2042</v>
       </c>
       <c r="B27">
         <v>61</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1513,169 +1531,160 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1012</v>
+        <v>2042</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1080</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2021</v>
+        <v>2042</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2090</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2101</v>
+      </c>
+      <c r="B30">
         <v>61</v>
       </c>
-      <c r="C29">
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2101</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>3041</v>
+      </c>
+      <c r="B32">
+        <v>61</v>
+      </c>
+      <c r="C32">
         <v>2000</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>2021</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2090</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>3021</v>
-      </c>
-      <c r="B31">
-        <v>61</v>
-      </c>
-      <c r="C31">
-        <v>4000</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>3021</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>3050</v>
-      </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3000</v>
+        <v>3041</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11010</v>
+        <v>3042</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C34">
-        <v>11010</v>
+        <v>4000</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11020</v>
+        <v>3042</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>11020</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11030</v>
+        <v>3042</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>11030</v>
+        <v>3050</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1686,251 +1695,251 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11040</v>
+        <v>3101</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>11040</v>
+        <v>10000</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12010</v>
+        <v>3101</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>12010</v>
+        <v>40</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12020</v>
+        <v>4041</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>12020</v>
+        <v>5000</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12030</v>
+        <v>4041</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>12030</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12040</v>
+        <v>4042</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>12040</v>
+        <v>10000</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12050</v>
+        <v>4042</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>12050</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13010</v>
+        <v>4101</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>13010</v>
+        <v>5000</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13020</v>
+        <v>4101</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>13020</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13030</v>
+        <v>5041</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>13030</v>
+        <v>7500</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13040</v>
+        <v>5041</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>13040</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13050</v>
+        <v>5042</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>13050</v>
+        <v>10000</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13060</v>
+        <v>5042</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>13060</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13070</v>
+        <v>5101</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>13070</v>
+        <v>15000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14010</v>
+        <v>5101</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>14010</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14020</v>
+        <v>11010</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>14020</v>
+        <v>11010</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1941,13 +1950,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14030</v>
+        <v>11020</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>14030</v>
+        <v>11020</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1958,13 +1967,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14040</v>
+        <v>11030</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>14040</v>
+        <v>11030</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1975,13 +1984,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14050</v>
+        <v>11040</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>14050</v>
+        <v>11040</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1992,13 +2001,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14060</v>
+        <v>12010</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>14060</v>
+        <v>12010</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2009,13 +2018,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14070</v>
+        <v>12020</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>14070</v>
+        <v>12020</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2026,13 +2035,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14080</v>
+        <v>12030</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14080</v>
+        <v>12030</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2043,13 +2052,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15010</v>
+        <v>12040</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>15010</v>
+        <v>12040</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2060,13 +2069,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15020</v>
+        <v>12050</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>15020</v>
+        <v>12050</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2077,13 +2086,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15030</v>
+        <v>13010</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>15030</v>
+        <v>13010</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2094,13 +2103,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15040</v>
+        <v>13020</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>15040</v>
+        <v>13020</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2111,13 +2120,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15050</v>
+        <v>13030</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>15050</v>
+        <v>13030</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2128,13 +2137,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15060</v>
+        <v>13040</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15060</v>
+        <v>13040</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2145,13 +2154,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15070</v>
+        <v>13050</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>15070</v>
+        <v>13050</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2162,52 +2171,341 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20010</v>
+        <v>13060</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>13060</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>20020</v>
+        <v>13070</v>
       </c>
       <c r="B66">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>13070</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
+        <v>14010</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>14010</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>14020</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>14020</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>14030</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>14030</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>14040</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>14040</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>14050</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>14050</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>14060</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>14060</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>14070</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>14070</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>14080</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>14080</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>15010</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>15010</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>15020</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>15020</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>15030</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>15030</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>15040</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>15040</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>15050</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>15050</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>15060</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>15060</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>15070</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>15070</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>20010</v>
+      </c>
+      <c r="B82">
+        <v>101</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>20020</v>
+      </c>
+      <c r="B83">
+        <v>102</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
         <v>20030</v>
       </c>
-      <c r="B67">
+      <c r="B84">
         <v>103</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Nu+100</t>
   </si>
   <si>
+    <t>選択仲間加入</t>
+  </si>
+  <si>
     <t>救出</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>ステージ1中ボス</t>
   </si>
   <si>
+    <t>魔法選択</t>
+  </si>
+  <si>
     <t>ステージ2中ボス</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>AddActor</t>
+  </si>
+  <si>
+    <t>SelectRelic</t>
   </si>
 </sst>
 </file>
@@ -118,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,14 +143,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,32 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,38 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +242,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,16 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,85 +294,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,85 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,71 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,6 +512,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -576,6 +561,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,145 +593,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1263,13 +1272,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1011</v>
+        <v>252</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1283,10 +1292,10 @@
         <v>1011</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>11010</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1297,59 +1306,56 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>11010</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1031</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1357,141 +1363,141 @@
         <v>1032</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>1041</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1032</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>12010</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>13010</v>
+        <v>12010</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>14050</v>
+        <v>13010</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>15010</v>
+        <v>14050</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>15010</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>1101</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>61</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2000</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>1101</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>2041</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1499,39 +1505,39 @@
         <v>2041</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B27">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1539,19 +1545,19 @@
         <v>2042</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1559,36 +1565,39 @@
         <v>2042</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2090</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1596,33 +1605,33 @@
         <v>2101</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3041</v>
+        <v>2101</v>
       </c>
       <c r="B32">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1630,33 +1639,33 @@
         <v>3041</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1664,16 +1673,16 @@
         <v>3042</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1681,33 +1690,33 @@
         <v>3042</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>3050</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1715,33 +1724,33 @@
         <v>3101</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4041</v>
+        <v>3101</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1749,33 +1758,33 @@
         <v>4041</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>5000</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B41">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1783,72 +1792,72 @@
         <v>4042</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>5041</v>
+        <v>4101</v>
       </c>
       <c r="B45">
         <v>61</v>
       </c>
       <c r="C45">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>5041</v>
+        <v>4101</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1860,103 +1869,103 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B47">
         <v>61</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B49">
         <v>61</v>
       </c>
       <c r="C49">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11010</v>
+        <v>5042</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C51">
-        <v>11010</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11020</v>
+        <v>5101</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>11020</v>
+        <v>15000</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1967,546 +1976,597 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11030</v>
+        <v>5101</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>11030</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12010</v>
+        <v>11020</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>12010</v>
+        <v>11020</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12040</v>
+        <v>12010</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>12040</v>
+        <v>12010</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12050</v>
+        <v>12020</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>12050</v>
+        <v>12020</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13030</v>
+        <v>12050</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>13030</v>
+        <v>12050</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13040</v>
+        <v>13010</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>13040</v>
+        <v>13010</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13050</v>
+        <v>13020</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>13050</v>
+        <v>13020</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13060</v>
+        <v>13030</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>13060</v>
+        <v>13030</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13070</v>
+        <v>13040</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>13070</v>
+        <v>13040</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14010</v>
+        <v>13050</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>14010</v>
+        <v>13050</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14020</v>
+        <v>13060</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>14020</v>
+        <v>13060</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14030</v>
+        <v>13070</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>14030</v>
+        <v>13070</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14050</v>
+        <v>14020</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>14050</v>
+        <v>14020</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14060</v>
+        <v>14030</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>14060</v>
+        <v>14030</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14070</v>
+        <v>14040</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>14070</v>
+        <v>14040</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14080</v>
+        <v>14050</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>14080</v>
+        <v>14050</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>15020</v>
+        <v>14070</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>15020</v>
+        <v>14070</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>15030</v>
+        <v>14080</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>15030</v>
+        <v>14080</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15060</v>
+        <v>15030</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>15060</v>
+        <v>15030</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15070</v>
+        <v>15040</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>15070</v>
+        <v>15040</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>20010</v>
+        <v>15050</v>
       </c>
       <c r="B82">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>20020</v>
+        <v>15060</v>
       </c>
       <c r="B83">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>15060</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
+        <v>15070</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>15070</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>20010</v>
+      </c>
+      <c r="B85">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>20020</v>
+      </c>
+      <c r="B86">
+        <v>102</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
         <v>20030</v>
       </c>
-      <c r="B84">
+      <c r="B87">
         <v>103</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>22</v>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2518,17 +2578,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2536,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2544,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2552,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2560,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2568,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2576,7 +2636,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2584,7 +2644,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2592,7 +2652,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2600,7 +2660,15 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -127,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -141,9 +141,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,45 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +208,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +239,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +261,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +294,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,169 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +485,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,32 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,39 +585,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,16 +593,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,127 +611,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1993,19 +1993,19 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11010</v>
+        <v>11020</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>11010</v>
+        <v>1000</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2030,27 +2030,27 @@
         <v>11030</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>11030</v>
+        <v>1000</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2061,30 +2061,30 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12010</v>
+        <v>11040</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>12010</v>
+        <v>1000</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2095,30 +2095,30 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>12030</v>
+        <v>1000</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2129,30 +2129,30 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12050</v>
+        <v>12030</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>12050</v>
+        <v>1000</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>13010</v>
+        <v>12030</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2163,30 +2163,30 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>13020</v>
+        <v>1000</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2197,30 +2197,30 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C66">
-        <v>13040</v>
+        <v>1000</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13050</v>
+        <v>13020</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>13050</v>
+        <v>13020</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2231,30 +2231,30 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13060</v>
+        <v>13030</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>13060</v>
+        <v>1000</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>13070</v>
+        <v>13030</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>13070</v>
+        <v>13030</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2265,30 +2265,30 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C70">
-        <v>14010</v>
+        <v>1000</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2299,30 +2299,30 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>14030</v>
+        <v>1000</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2333,30 +2333,30 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14050</v>
+        <v>14020</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>14050</v>
+        <v>1000</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14060</v>
+        <v>14020</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>14060</v>
+        <v>14020</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2367,30 +2367,30 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>14070</v>
+        <v>14030</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>14070</v>
+        <v>1000</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14080</v>
+        <v>14030</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>14080</v>
+        <v>14030</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2401,19 +2401,19 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>15010</v>
+        <v>15020</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>15010</v>
+        <v>1000</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2438,27 +2438,27 @@
         <v>15030</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>15030</v>
+        <v>1000</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2472,27 +2472,27 @@
         <v>15050</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>15050</v>
+        <v>1000</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>15060</v>
+        <v>15050</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>15060</v>
+        <v>15050</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2503,27 +2503,27 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>15070</v>
+        <v>20010</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C84">
-        <v>15070</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20010</v>
+        <v>20020</v>
       </c>
       <c r="B85">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2532,15 +2532,15 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>20020</v>
+        <v>20030</v>
       </c>
       <c r="B86">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2549,23 +2549,6 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>20030</v>
-      </c>
-      <c r="B87">
-        <v>103</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -127,58 +127,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,22 +150,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +172,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +193,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,34 +256,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +270,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,181 +300,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +503,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -520,44 +529,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +561,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,145 +593,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11020</v>
+        <v>6041</v>
       </c>
       <c r="B54">
         <v>61</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2010,30 +2010,30 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11020</v>
+        <v>6041</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>11020</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11030</v>
+        <v>6042</v>
       </c>
       <c r="B56">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2044,166 +2044,166 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11030</v>
+        <v>6042</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>11030</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>11040</v>
+        <v>6042</v>
       </c>
       <c r="B58">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C58">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>11040</v>
+        <v>6101</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>11040</v>
+        <v>20000</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12020</v>
+        <v>6101</v>
       </c>
       <c r="B60">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12020</v>
+        <v>7021</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>12020</v>
+        <v>10000</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12030</v>
+        <v>7021</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12030</v>
+        <v>7031</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>12030</v>
+        <v>15000</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12040</v>
+        <v>7031</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12040</v>
+        <v>7031</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>12040</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13020</v>
+        <v>7101</v>
       </c>
       <c r="B66">
         <v>61</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2214,24 +2214,24 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13020</v>
+        <v>7101</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>13020</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13030</v>
+        <v>11020</v>
       </c>
       <c r="B68">
         <v>61</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>13030</v>
+        <v>11020</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>13030</v>
+        <v>11020</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>13040</v>
+        <v>11030</v>
       </c>
       <c r="B70">
         <v>61</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>13040</v>
+        <v>11030</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>13040</v>
+        <v>11030</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14010</v>
+        <v>11040</v>
       </c>
       <c r="B72">
         <v>61</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14010</v>
+        <v>11040</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>14010</v>
+        <v>11040</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14020</v>
+        <v>12020</v>
       </c>
       <c r="B74">
         <v>61</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14020</v>
+        <v>12020</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>14020</v>
+        <v>12020</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>14030</v>
+        <v>12030</v>
       </c>
       <c r="B76">
         <v>61</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14030</v>
+        <v>12030</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>14030</v>
+        <v>12030</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>15020</v>
+        <v>12040</v>
       </c>
       <c r="B78">
         <v>61</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>15020</v>
+        <v>12040</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>15020</v>
+        <v>12040</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15030</v>
+        <v>13020</v>
       </c>
       <c r="B80">
         <v>61</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15030</v>
+        <v>13020</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>15030</v>
+        <v>13020</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>15050</v>
+        <v>13030</v>
       </c>
       <c r="B82">
         <v>61</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>15050</v>
+        <v>13030</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>15050</v>
+        <v>13030</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2503,52 +2503,290 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>20010</v>
+        <v>13040</v>
       </c>
       <c r="B84">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20020</v>
+        <v>13040</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>13040</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
+        <v>14010</v>
+      </c>
+      <c r="B86">
+        <v>61</v>
+      </c>
+      <c r="C86">
+        <v>1000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>14010</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>14010</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>14020</v>
+      </c>
+      <c r="B88">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>1000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>14020</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>14020</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>14030</v>
+      </c>
+      <c r="B90">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>1000</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>14030</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>14030</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>15020</v>
+      </c>
+      <c r="B92">
+        <v>61</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>15020</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>15020</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>15030</v>
+      </c>
+      <c r="B94">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>1000</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>15030</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>15030</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>15050</v>
+      </c>
+      <c r="B96">
+        <v>61</v>
+      </c>
+      <c r="C96">
+        <v>1000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>15050</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>15050</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>20010</v>
+      </c>
+      <c r="B98">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>20020</v>
+      </c>
+      <c r="B99">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>20030</v>
       </c>
-      <c r="B86">
+      <c r="B100">
         <v>103</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>初期仲間変更</t>
+  </si>
+  <si>
+    <t>レベルリンク</t>
   </si>
   <si>
     <t>GetItemType</t>
@@ -127,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,16 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,40 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -225,15 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,21 +228,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -271,10 +265,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,49 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,132 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +488,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,41 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,30 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,15 +596,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,127 +614,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2788,6 +2791,23 @@
       </c>
       <c r="E100" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>20040</v>
+      </c>
+      <c r="B101">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2817,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2825,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2833,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2841,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2849,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2857,7 +2877,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2865,7 +2885,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2873,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2889,7 +2909,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -71,10 +71,10 @@
     <t>魔法</t>
   </si>
   <si>
+    <t>ステージ1中ボス</t>
+  </si>
+  <si>
     <t>Nu</t>
-  </si>
-  <si>
-    <t>ステージ1中ボス</t>
   </si>
   <si>
     <t>魔法選択</t>
@@ -130,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,6 +141,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +174,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -167,7 +213,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,57 +274,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,29 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,43 +297,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,139 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,15 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,10 +506,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -541,11 +558,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,145 +596,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,8 +1066,8 @@
   <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1324,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1031</v>
       </c>
@@ -1339,6 +1339,9 @@
       </c>
       <c r="E16" t="s">
         <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1355,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1378,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1398,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1668,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1753,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1821,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1872,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1906,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1991,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2025,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2059,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2144,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2178,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2229,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:5">

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>AddActor</t>
+  </si>
+  <si>
+    <t>バトルボーナス</t>
   </si>
   <si>
     <t>SelectRelic</t>
@@ -131,9 +134,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,12 +148,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -158,16 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,62 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +232,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +491,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +525,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,66 +587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,145 +599,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1298,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1332,7 +1335,7 @@
         <v>61</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1372,7 +1375,7 @@
         <v>61</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1405,31 +1408,31 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>1041</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>12010</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>13010</v>
+        <v>12010</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1439,31 +1442,31 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>1051</v>
+      <c r="A22">
+        <v>1042</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>14050</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>15010</v>
+        <v>13010</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1473,108 +1476,99 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24">
+        <v>1051</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>14050</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1052</v>
+      </c>
+      <c r="B26">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>15010</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>1101</v>
       </c>
-      <c r="B24">
-        <v>61</v>
-      </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>1101</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>20</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>2041</v>
-      </c>
-      <c r="B26">
-        <v>61</v>
-      </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>2041</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>2042</v>
-      </c>
-      <c r="B28">
-        <v>61</v>
-      </c>
-      <c r="C28">
-        <v>2000</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>2042</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>40</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1582,107 +1576,116 @@
       <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>2101</v>
+        <v>2041</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2042</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>3041</v>
-      </c>
-      <c r="B33">
-        <v>61</v>
-      </c>
-      <c r="C33">
-        <v>2000</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
-        <v>3041</v>
+        <v>2042</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3042</v>
+        <v>2101</v>
       </c>
       <c r="B35">
         <v>61</v>
       </c>
       <c r="C35">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1693,13 +1696,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3042</v>
+        <v>2101</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1710,98 +1713,98 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3101</v>
+        <v>3041</v>
       </c>
       <c r="B38">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4041</v>
+        <v>3042</v>
       </c>
       <c r="B40">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4041</v>
+        <v>3042</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4042</v>
+        <v>3101</v>
       </c>
       <c r="B42">
         <v>61</v>
       </c>
       <c r="C42">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1812,13 +1815,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4042</v>
+        <v>3101</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1829,98 +1832,98 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B44">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4101</v>
+        <v>4041</v>
       </c>
       <c r="B45">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5041</v>
+        <v>4042</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>7500</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5041</v>
+        <v>4042</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5042</v>
+        <v>4101</v>
       </c>
       <c r="B49">
         <v>61</v>
       </c>
       <c r="C49">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1931,13 +1934,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5042</v>
+        <v>4101</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1948,98 +1951,98 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B51">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5101</v>
+        <v>5041</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>6041</v>
+        <v>5042</v>
       </c>
       <c r="B54">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>10000</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6041</v>
+        <v>5042</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>6042</v>
+        <v>5101</v>
       </c>
       <c r="B56">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>15000</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2050,13 +2053,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>6042</v>
+        <v>5101</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2067,98 +2070,98 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="B58">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6101</v>
+        <v>6041</v>
       </c>
       <c r="B59">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6101</v>
+        <v>6042</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7021</v>
+        <v>6042</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7021</v>
+        <v>6042</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7031</v>
+        <v>6101</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
       <c r="C63">
-        <v>15000</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2169,13 +2172,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>7031</v>
+        <v>6101</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2186,98 +2189,98 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>7031</v>
+        <v>7021</v>
       </c>
       <c r="B65">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7101</v>
+        <v>7021</v>
       </c>
       <c r="B66">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7101</v>
+        <v>7031</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11020</v>
+        <v>7031</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11020</v>
+        <v>7031</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>11020</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11030</v>
+        <v>7101</v>
       </c>
       <c r="B70">
         <v>61</v>
       </c>
       <c r="C70">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2288,30 +2291,30 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11030</v>
+        <v>7101</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>11030</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B72">
         <v>61</v>
       </c>
       <c r="C72">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2322,13 +2325,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2339,13 +2342,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="B74">
         <v>61</v>
       </c>
       <c r="C74">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2356,13 +2359,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2373,13 +2376,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="B76">
         <v>61</v>
       </c>
       <c r="C76">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2390,13 +2393,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2407,13 +2410,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="B78">
         <v>61</v>
       </c>
       <c r="C78">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2424,13 +2427,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2441,13 +2444,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="B80">
         <v>61</v>
       </c>
       <c r="C80">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2458,13 +2461,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2475,13 +2478,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B82">
         <v>61</v>
       </c>
       <c r="C82">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2492,13 +2495,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="B84">
         <v>61</v>
       </c>
       <c r="C84">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2526,13 +2529,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2543,13 +2546,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="B86">
         <v>61</v>
       </c>
       <c r="C86">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2560,13 +2563,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="B88">
         <v>61</v>
       </c>
       <c r="C88">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2594,13 +2597,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2611,13 +2614,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B90">
         <v>61</v>
       </c>
       <c r="C90">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2628,13 +2631,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2645,13 +2648,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="B92">
         <v>61</v>
       </c>
       <c r="C92">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2662,13 +2665,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2679,13 +2682,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="B94">
         <v>61</v>
       </c>
       <c r="C94">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2696,13 +2699,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2713,13 +2716,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="B96">
         <v>61</v>
       </c>
       <c r="C96">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2730,13 +2733,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2747,69 +2750,137 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>20010</v>
+        <v>15030</v>
       </c>
       <c r="B98">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>20020</v>
+        <v>15030</v>
       </c>
       <c r="B99">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>20030</v>
+        <v>15050</v>
       </c>
       <c r="B100">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
+        <v>15050</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>15050</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>20010</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>20020</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>20030</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>20040</v>
       </c>
-      <c r="B101">
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2904,7 +2975,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2912,7 +2983,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -133,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,6 +144,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,13 +170,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -177,14 +177,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,25 +237,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,47 +277,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,13 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,55 +300,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,55 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,61 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,26 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,17 +533,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,145 +599,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>61</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>3042</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0</v>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -134,14 +134,59 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -154,15 +199,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,111 +285,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,12 +300,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,169 +360,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,37 +518,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,16 +567,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,145 +599,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A73" sqref="$A73:$XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1375,7 +1375,7 @@
         <v>61</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>61</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>61</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>61</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6041</v>
+        <v>6021</v>
       </c>
       <c r="B58">
         <v>61</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6041</v>
+        <v>6021</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6042</v>
+        <v>6031</v>
       </c>
       <c r="B60">
         <v>61</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6042</v>
+        <v>6031</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6042</v>
+        <v>6031</v>
       </c>
       <c r="B62">
         <v>71</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>7021</v>
+        <v>11020</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2206,30 +2206,30 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7021</v>
+        <v>11020</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>11020</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7031</v>
+        <v>11030</v>
       </c>
       <c r="B67">
         <v>61</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2240,647 +2240,528 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>7031</v>
+        <v>11030</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>11030</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>7031</v>
+        <v>11040</v>
       </c>
       <c r="B69">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>7101</v>
+        <v>11040</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>11040</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>7101</v>
+        <v>12020</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11020</v>
+        <v>12020</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>12020</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11020</v>
+        <v>12030</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>11020</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>11030</v>
+        <v>12030</v>
       </c>
       <c r="B74">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>12030</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>11030</v>
+        <v>12040</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C75">
-        <v>11030</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11040</v>
+        <v>12040</v>
       </c>
       <c r="B76">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>12040</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11040</v>
+        <v>13020</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C77">
-        <v>11040</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12020</v>
+        <v>13020</v>
       </c>
       <c r="B78">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>13020</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C79">
-        <v>12020</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12030</v>
+        <v>13030</v>
       </c>
       <c r="B80">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>13030</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>12030</v>
+        <v>13040</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C81">
-        <v>12030</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12040</v>
+        <v>13040</v>
       </c>
       <c r="B82">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>13040</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C83">
-        <v>12040</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13020</v>
+        <v>14010</v>
       </c>
       <c r="B84">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>14010</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13020</v>
+        <v>14020</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C85">
-        <v>13020</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13030</v>
+        <v>14020</v>
       </c>
       <c r="B86">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>14020</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>13030</v>
+        <v>14030</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C87">
-        <v>13030</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13040</v>
+        <v>14030</v>
       </c>
       <c r="B88">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>14030</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13040</v>
+        <v>15020</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C89">
-        <v>13040</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14010</v>
+        <v>15020</v>
       </c>
       <c r="B90">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>15020</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>14010</v>
+        <v>15030</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C91">
-        <v>14010</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>14020</v>
+        <v>15030</v>
       </c>
       <c r="B92">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>15030</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C93">
-        <v>14020</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14030</v>
+        <v>15050</v>
       </c>
       <c r="B94">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>15050</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>14030</v>
+        <v>20010</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C95">
-        <v>14030</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15020</v>
+        <v>20020</v>
       </c>
       <c r="B96">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>15020</v>
+        <v>20030</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C97">
-        <v>15020</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>15030</v>
+        <v>20040</v>
       </c>
       <c r="B98">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>15030</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>15030</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>15050</v>
-      </c>
-      <c r="B100">
-        <v>61</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>15050</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>15050</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>20010</v>
-      </c>
-      <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>20020</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>20030</v>
-      </c>
-      <c r="B104">
-        <v>103</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>20040</v>
-      </c>
-      <c r="B105">
-        <v>104</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>ステージ2中ボス</t>
+  </si>
+  <si>
+    <t>ED</t>
   </si>
   <si>
     <t>過去改編</t>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,7 +151,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,30 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,62 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +235,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,7 +258,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +303,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,43 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,85 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +494,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,24 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,30 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +579,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,145 +602,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2104,13 +2107,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B60">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2121,13 +2124,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2141,61 +2144,61 @@
         <v>6031</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11020</v>
+        <v>6101</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2206,24 +2209,24 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>11020</v>
+        <v>6101</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>11020</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B67">
         <v>61</v>
@@ -2240,13 +2243,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B69">
         <v>61</v>
@@ -2274,13 +2277,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B71">
         <v>61</v>
@@ -2308,13 +2311,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B73">
         <v>61</v>
@@ -2342,13 +2345,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B75">
         <v>61</v>
@@ -2376,13 +2379,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B77">
         <v>61</v>
@@ -2410,13 +2413,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B79">
         <v>61</v>
@@ -2444,13 +2447,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B81">
         <v>61</v>
@@ -2478,13 +2481,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="B83">
         <v>61</v>
@@ -2512,13 +2515,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B85">
         <v>61</v>
@@ -2546,13 +2549,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2563,7 +2566,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B87">
         <v>61</v>
@@ -2580,13 +2583,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2597,7 +2600,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>15020</v>
+        <v>14030</v>
       </c>
       <c r="B89">
         <v>61</v>
@@ -2614,13 +2617,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>15020</v>
+        <v>14030</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>15020</v>
+        <v>14030</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B91">
         <v>61</v>
@@ -2648,13 +2651,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="B93">
         <v>61</v>
@@ -2682,13 +2685,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2699,44 +2702,44 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>20010</v>
+        <v>15050</v>
       </c>
       <c r="B95">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>20020</v>
+        <v>15050</v>
       </c>
       <c r="B96">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>20030</v>
+        <v>20010</v>
       </c>
       <c r="B97">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2745,24 +2748,58 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
+        <v>20020</v>
+      </c>
+      <c r="B98">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>20030</v>
+      </c>
+      <c r="B99">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>20040</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>104</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>25</v>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2792,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2800,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2808,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2816,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2824,7 +2861,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2832,7 +2869,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2840,7 +2877,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2848,7 +2885,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2856,7 +2893,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2864,7 +2901,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>ステージ2中ボス</t>
+  </si>
+  <si>
+    <t>Nu獲得量アップ</t>
+  </si>
+  <si>
+    <t>敵Lvアップ</t>
   </si>
   <si>
     <t>ED</t>
@@ -137,9 +143,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,13 +153,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,10 +165,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,18 +193,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,51 +235,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,14 +257,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -288,7 +286,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,25 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,31 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,13 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +523,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,15 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,145 +608,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1716,13 +1722,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3041</v>
+        <v>2102</v>
       </c>
       <c r="B37">
         <v>61</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1733,13 +1739,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3041</v>
+        <v>2102</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1750,132 +1756,132 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3042</v>
+        <v>2102</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3042</v>
+        <v>2102</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B41">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3101</v>
+        <v>3041</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4041</v>
+        <v>3042</v>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4041</v>
+        <v>3042</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4042</v>
+        <v>3101</v>
       </c>
       <c r="B46">
         <v>61</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1886,13 +1892,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4042</v>
+        <v>3101</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1903,302 +1909,302 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4042</v>
+        <v>3102</v>
       </c>
       <c r="B48">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4101</v>
+        <v>3102</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4101</v>
+        <v>3102</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5041</v>
+        <v>3102</v>
       </c>
       <c r="B51">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5041</v>
+        <v>4041</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5042</v>
+        <v>4041</v>
       </c>
       <c r="B53">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5042</v>
+        <v>4042</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>5042</v>
+        <v>4042</v>
       </c>
       <c r="B55">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D55">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5101</v>
+        <v>4042</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5101</v>
+        <v>4101</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6021</v>
+        <v>4101</v>
       </c>
       <c r="B58">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6021</v>
+        <v>4102</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6022</v>
+        <v>4102</v>
       </c>
       <c r="B60">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6022</v>
+        <v>4102</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6031</v>
+        <v>4102</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6031</v>
+        <v>5041</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6031</v>
+        <v>5041</v>
       </c>
       <c r="B64">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D64">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6101</v>
+        <v>5042</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2209,268 +2215,268 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6101</v>
+        <v>5042</v>
       </c>
       <c r="B66">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11020</v>
+        <v>5042</v>
       </c>
       <c r="B67">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11020</v>
+        <v>5101</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>11020</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11030</v>
+        <v>5101</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11030</v>
+        <v>5102</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C70">
-        <v>11030</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11040</v>
+        <v>5102</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11040</v>
+        <v>5102</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>11040</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12020</v>
+        <v>5102</v>
       </c>
       <c r="B73">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12020</v>
+        <v>6021</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>12020</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12030</v>
+        <v>6021</v>
       </c>
       <c r="B75">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12030</v>
+        <v>6022</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>12030</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12040</v>
+        <v>6022</v>
       </c>
       <c r="B77">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12040</v>
+        <v>6031</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>12040</v>
+        <v>4</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>13020</v>
+        <v>6031</v>
       </c>
       <c r="B79">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13020</v>
+        <v>6031</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C80">
-        <v>13020</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13030</v>
+        <v>6101</v>
       </c>
       <c r="B81">
         <v>61</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2481,24 +2487,24 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13030</v>
+        <v>6101</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C82">
-        <v>13030</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>13040</v>
+        <v>11020</v>
       </c>
       <c r="B83">
         <v>61</v>
@@ -2515,13 +2521,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13040</v>
+        <v>11020</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>13040</v>
+        <v>11020</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2532,7 +2538,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>14010</v>
+        <v>11030</v>
       </c>
       <c r="B85">
         <v>61</v>
@@ -2549,13 +2555,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14010</v>
+        <v>11030</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>14010</v>
+        <v>11030</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14020</v>
+        <v>11040</v>
       </c>
       <c r="B87">
         <v>61</v>
@@ -2583,13 +2589,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>14020</v>
+        <v>11040</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>14020</v>
+        <v>11040</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2600,7 +2606,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14030</v>
+        <v>12020</v>
       </c>
       <c r="B89">
         <v>61</v>
@@ -2617,13 +2623,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14030</v>
+        <v>12020</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>14030</v>
+        <v>12020</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>15020</v>
+        <v>12030</v>
       </c>
       <c r="B91">
         <v>61</v>
@@ -2651,13 +2657,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>15020</v>
+        <v>12030</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>15020</v>
+        <v>12030</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2668,7 +2674,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>15030</v>
+        <v>12040</v>
       </c>
       <c r="B93">
         <v>61</v>
@@ -2685,13 +2691,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15030</v>
+        <v>12040</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>15030</v>
+        <v>12040</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>15050</v>
+        <v>13020</v>
       </c>
       <c r="B95">
         <v>61</v>
@@ -2719,13 +2725,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15050</v>
+        <v>13020</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>15050</v>
+        <v>13020</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2736,70 +2742,342 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>20010</v>
+        <v>13030</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>20020</v>
+        <v>13030</v>
       </c>
       <c r="B98">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>13030</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>20030</v>
+        <v>13040</v>
       </c>
       <c r="B99">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
+        <v>13040</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>13040</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>14010</v>
+      </c>
+      <c r="B101">
+        <v>61</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>14010</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>14010</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>14020</v>
+      </c>
+      <c r="B103">
+        <v>61</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>14020</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>14020</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>14030</v>
+      </c>
+      <c r="B105">
+        <v>61</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>14030</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>14030</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>15020</v>
+      </c>
+      <c r="B107">
+        <v>61</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>15020</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>15020</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>15030</v>
+      </c>
+      <c r="B109">
+        <v>61</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>15030</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>15030</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>15050</v>
+      </c>
+      <c r="B111">
+        <v>61</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>15050</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>15050</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>20010</v>
+      </c>
+      <c r="B113">
+        <v>101</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>20020</v>
+      </c>
+      <c r="B114">
+        <v>102</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>20030</v>
+      </c>
+      <c r="B115">
+        <v>103</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>20040</v>
       </c>
-      <c r="B100">
+      <c r="B116">
         <v>104</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>26</v>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2811,17 +3089,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2829,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2837,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2845,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2853,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2861,7 +3139,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2869,7 +3147,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2877,7 +3155,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2885,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2893,15 +3171,31 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="B13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
